--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H2">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I2">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J2">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.779764</v>
+        <v>11.319211</v>
       </c>
       <c r="N2">
-        <v>35.339292</v>
+        <v>33.957633</v>
       </c>
       <c r="O2">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="P2">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="Q2">
-        <v>17.333710690248</v>
+        <v>21.39982110939533</v>
       </c>
       <c r="R2">
-        <v>156.003396212232</v>
+        <v>192.598389984558</v>
       </c>
       <c r="S2">
-        <v>0.0005087175023574935</v>
+        <v>0.000629699948156216</v>
       </c>
       <c r="T2">
-        <v>0.0005087175023574935</v>
+        <v>0.000629699948156216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H3">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I3">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J3">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>131.524056</v>
       </c>
       <c r="O3">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="P3">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="Q3">
-        <v>64.51176032366399</v>
+        <v>82.885378671184</v>
       </c>
       <c r="R3">
-        <v>580.605842912976</v>
+        <v>745.968408040656</v>
       </c>
       <c r="S3">
-        <v>0.001893320026565533</v>
+        <v>0.002438941820370556</v>
       </c>
       <c r="T3">
-        <v>0.001893320026565532</v>
+        <v>0.002438941820370555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H4">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I4">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J4">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>176.754356</v>
       </c>
       <c r="O4">
-        <v>0.5143924598250619</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="P4">
-        <v>0.514392459825062</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="Q4">
-        <v>86.69695109186402</v>
+        <v>111.3891418376062</v>
       </c>
       <c r="R4">
-        <v>780.2725598267762</v>
+        <v>1002.502276538456</v>
       </c>
       <c r="S4">
-        <v>0.002544420938459301</v>
+        <v>0.003277678653561789</v>
       </c>
       <c r="T4">
-        <v>0.002544420938459301</v>
+        <v>0.003277678653561789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>794.313995</v>
       </c>
       <c r="I5">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J5">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.779764</v>
+        <v>11.319211</v>
       </c>
       <c r="N5">
-        <v>35.339292</v>
+        <v>33.957633</v>
       </c>
       <c r="O5">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="P5">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="Q5">
-        <v>3118.94380099906</v>
+        <v>2997.002569885982</v>
       </c>
       <c r="R5">
-        <v>28070.49420899154</v>
+        <v>26973.02312897384</v>
       </c>
       <c r="S5">
-        <v>0.09153615915202101</v>
+        <v>0.08818823079098968</v>
       </c>
       <c r="T5">
-        <v>0.091536159152021</v>
+        <v>0.0881882307909897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>794.313995</v>
       </c>
       <c r="I6">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J6">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>131.524056</v>
       </c>
       <c r="O6">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="P6">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="Q6">
         <v>11607.93315110708</v>
@@ -818,10 +818,10 @@
         <v>104471.3983599637</v>
       </c>
       <c r="S6">
-        <v>0.3406748194710671</v>
+        <v>0.3415689722865858</v>
       </c>
       <c r="T6">
-        <v>0.340674819471067</v>
+        <v>0.3415689722865858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>794.313995</v>
       </c>
       <c r="I7">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J7">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>176.754356</v>
       </c>
       <c r="O7">
-        <v>0.5143924598250619</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="P7">
-        <v>0.514392459825062</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="Q7">
         <v>15599.82873866803</v>
@@ -880,10 +880,10 @@
         <v>140398.4586480123</v>
       </c>
       <c r="S7">
-        <v>0.4578307585117716</v>
+        <v>0.4590324048864288</v>
       </c>
       <c r="T7">
-        <v>0.4578307585117716</v>
+        <v>0.4590324048864289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>93.717342</v>
       </c>
       <c r="I8">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J8">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.779764</v>
+        <v>11.319211</v>
       </c>
       <c r="N8">
-        <v>35.339292</v>
+        <v>33.957633</v>
       </c>
       <c r="O8">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="P8">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="Q8">
-        <v>367.989390489096</v>
+        <v>353.602122819054</v>
       </c>
       <c r="R8">
-        <v>3311.904514401864</v>
+        <v>3182.419105371486</v>
       </c>
       <c r="S8">
-        <v>0.01079991739616319</v>
+        <v>0.0104049112031749</v>
       </c>
       <c r="T8">
-        <v>0.01079991739616319</v>
+        <v>0.0104049112031749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>93.717342</v>
       </c>
       <c r="I9">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J9">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>131.524056</v>
       </c>
       <c r="O9">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="P9">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="Q9">
         <v>1369.564993042128</v>
@@ -1004,10 +1004,10 @@
         <v>12326.08493737915</v>
       </c>
       <c r="S9">
-        <v>0.04019460662676384</v>
+        <v>0.04030010347780727</v>
       </c>
       <c r="T9">
-        <v>0.04019460662676383</v>
+        <v>0.04030010347780727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>93.717342</v>
       </c>
       <c r="I10">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J10">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>176.754356</v>
       </c>
       <c r="O10">
-        <v>0.5143924598250619</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="P10">
-        <v>0.514392459825062</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="Q10">
         <v>1840.549825693528</v>
@@ -1066,10 +1066,10 @@
         <v>16564.94843124176</v>
       </c>
       <c r="S10">
-        <v>0.05401728037483101</v>
+        <v>0.05415905693292478</v>
       </c>
       <c r="T10">
-        <v>0.05401728037483101</v>
+        <v>0.05415905693292478</v>
       </c>
     </row>
   </sheetData>
